--- a/alur-baru.xlsx
+++ b/alur-baru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\truck-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\GitHub\TIMTRUCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1557D8F-771E-4B9D-900E-F65E895E8C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1A847-7EEC-4DA6-B400-5D6F71818DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B449CFD6-D33E-421F-8C4E-A144ADBF7569}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B449CFD6-D33E-421F-8C4E-A144ADBF7569}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>shipmentid</t>
   </si>
@@ -235,9 +235,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>detailujo</t>
-  </si>
-  <si>
     <t>kdrate</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>jumlah belum terbayar</t>
   </si>
   <si>
-    <t>detailujoactual</t>
-  </si>
-  <si>
     <t>settle</t>
   </si>
   <si>
@@ -305,6 +299,15 @@
   </si>
   <si>
     <t>jumlah</t>
+  </si>
+  <si>
+    <t>nominalujo</t>
+  </si>
+  <si>
+    <t>ujoongoing</t>
+  </si>
+  <si>
+    <t>detailrateshipment</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -406,7 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -772,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91989125-D16E-4976-99CB-8B89C83A13D2}">
-  <dimension ref="C3:T30"/>
+  <dimension ref="C1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,8 +788,28 @@
     <col min="5" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
@@ -795,6 +817,18 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="1">
+        <v>50001</v>
+      </c>
+      <c r="T3" s="1">
+        <v>150000</v>
+      </c>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
@@ -825,7 +859,22 @@
         <v>68</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="1">
+        <v>50002</v>
+      </c>
+      <c r="T4" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.3">
@@ -854,52 +903,44 @@
         <v>44927</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N5" s="1">
         <v>50000</v>
       </c>
+      <c r="O5" s="1">
+        <v>250000</v>
+      </c>
+      <c r="T5" s="12">
+        <f>SUM(T3:T4)</f>
+        <v>250000</v>
+      </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" t="s">
-        <v>89</v>
+      <c r="Q7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="3:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="S8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
@@ -913,28 +954,16 @@
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="1">
         <v>50001</v>
       </c>
-      <c r="N9" s="1">
-        <v>150000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="1">
-        <v>50001</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>160000</v>
       </c>
     </row>
@@ -954,28 +983,16 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="1">
+      <c r="Q10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="R10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="1">
         <v>50002</v>
       </c>
-      <c r="N10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R10" s="1">
-        <v>50002</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -995,12 +1012,8 @@
       <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="13">
-        <f>SUM(N9:N10)</f>
-        <v>250000</v>
-      </c>
-      <c r="S11" s="13">
-        <f>SUM(S9:S10)</f>
+      <c r="T11" s="12">
+        <f>SUM(T9:T10)</f>
         <v>260000</v>
       </c>
     </row>
@@ -1009,15 +1022,15 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>61</v>
@@ -1026,16 +1039,16 @@
         <v>15</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>15</v>
@@ -1052,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" s="1">
         <v>50000</v>
@@ -1071,12 +1084,12 @@
         <v>50000</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>62</v>
@@ -1091,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="1">
         <v>20000</v>
@@ -1110,7 +1123,7 @@
         <v>20000</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.3">
@@ -1124,47 +1137,47 @@
         <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17">
         <v>190000</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <f>SUM(M15:M17)</f>
         <v>260000</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" s="8">
-        <f>S11-N18</f>
+        <f>T11-N18</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="J21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>68</v>
@@ -1172,7 +1185,7 @@
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>66</v>
@@ -1184,7 +1197,7 @@
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.3">
@@ -1192,22 +1205,22 @@
         <v>13</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="12" t="s">
-        <v>92</v>
+      <c r="Q26" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.3">
@@ -1215,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="1">
         <v>10001</v>
@@ -1226,7 +1239,7 @@
       <c r="O27" s="1">
         <v>350000</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="1">
         <v>1</v>
       </c>
       <c r="Q27" s="1">
@@ -1239,18 +1252,18 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M28" s="1">
         <v>10002</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="1">
         <v>100000</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="1">
         <v>2</v>
       </c>
       <c r="Q28" s="1">
